--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +561,22 @@
         <v>2.430126</v>
       </c>
       <c r="O2">
-        <v>0.1880856911129011</v>
+        <v>0.1516674503452159</v>
       </c>
       <c r="P2">
-        <v>0.1880856911129011</v>
+        <v>0.1516674503452159</v>
       </c>
       <c r="Q2">
-        <v>131.550251340474</v>
+        <v>163.174652029192</v>
       </c>
       <c r="R2">
-        <v>1183.952262064266</v>
+        <v>1468.571868262728</v>
       </c>
       <c r="S2">
-        <v>0.07354849604357833</v>
+        <v>0.073308465659522</v>
       </c>
       <c r="T2">
-        <v>0.07354849604357833</v>
+        <v>0.07330846565952201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.496729</v>
+        <v>4.530866666666666</v>
       </c>
       <c r="N3">
-        <v>10.490187</v>
+        <v>13.5926</v>
       </c>
       <c r="O3">
-        <v>0.811914308887099</v>
+        <v>0.8483325496547841</v>
       </c>
       <c r="P3">
-        <v>0.8119143088870989</v>
+        <v>0.8483325496547841</v>
       </c>
       <c r="Q3">
-        <v>567.8663313995129</v>
+        <v>912.6966153903112</v>
       </c>
       <c r="R3">
-        <v>5110.796982595616</v>
+        <v>8214.269538512801</v>
       </c>
       <c r="S3">
-        <v>0.3174886722194227</v>
+        <v>0.4100415576491173</v>
       </c>
       <c r="T3">
-        <v>0.3174886722194226</v>
+        <v>0.4100415576491173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>196.252094</v>
       </c>
       <c r="I4">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J4">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +685,10 @@
         <v>2.430126</v>
       </c>
       <c r="O4">
-        <v>0.1880856911129011</v>
+        <v>0.1516674503452159</v>
       </c>
       <c r="P4">
-        <v>0.1880856911129011</v>
+        <v>0.1516674503452159</v>
       </c>
       <c r="Q4">
         <v>52.99081290931601</v>
@@ -697,10 +697,10 @@
         <v>476.917316183844</v>
       </c>
       <c r="S4">
-        <v>0.02962666018417342</v>
+        <v>0.02380685443556379</v>
       </c>
       <c r="T4">
-        <v>0.02962666018417342</v>
+        <v>0.02380685443556379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.496729</v>
+        <v>4.530866666666666</v>
       </c>
       <c r="N5">
-        <v>10.490187</v>
+        <v>13.5926</v>
       </c>
       <c r="O5">
-        <v>0.811914308887099</v>
+        <v>0.8483325496547841</v>
       </c>
       <c r="P5">
-        <v>0.8119143088870989</v>
+        <v>0.8483325496547841</v>
       </c>
       <c r="Q5">
-        <v>228.7467961335087</v>
+        <v>296.3973569893778</v>
       </c>
       <c r="R5">
-        <v>2058.721165201578</v>
+        <v>2667.5762129044</v>
       </c>
       <c r="S5">
-        <v>0.1278901610523214</v>
+        <v>0.1331606054998154</v>
       </c>
       <c r="T5">
-        <v>0.1278901610523214</v>
+        <v>0.1331606054998154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H6">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I6">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J6">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>2.430126</v>
       </c>
       <c r="O6">
-        <v>0.1880856911129011</v>
+        <v>0.1516674503452159</v>
       </c>
       <c r="P6">
-        <v>0.1880856911129011</v>
+        <v>0.1516674503452159</v>
       </c>
       <c r="Q6">
-        <v>49.558683046254</v>
+        <v>48.95475974333601</v>
       </c>
       <c r="R6">
-        <v>446.0281474162859</v>
+        <v>440.5928376900241</v>
       </c>
       <c r="S6">
-        <v>0.02770778897653781</v>
+        <v>0.02199360181796165</v>
       </c>
       <c r="T6">
-        <v>0.02770778897653782</v>
+        <v>0.02199360181796165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H7">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I7">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J7">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.496729</v>
+        <v>4.530866666666666</v>
       </c>
       <c r="N7">
-        <v>10.490187</v>
+        <v>13.5926</v>
       </c>
       <c r="O7">
-        <v>0.811914308887099</v>
+        <v>0.8483325496547841</v>
       </c>
       <c r="P7">
-        <v>0.8119143088870989</v>
+        <v>0.8483325496547841</v>
       </c>
       <c r="Q7">
-        <v>213.931233454123</v>
+        <v>273.8222081024889</v>
       </c>
       <c r="R7">
-        <v>1925.381101087107</v>
+        <v>2464.3998729224</v>
       </c>
       <c r="S7">
-        <v>0.11960692067836</v>
+        <v>0.1230184081281487</v>
       </c>
       <c r="T7">
-        <v>0.11960692067836</v>
+        <v>0.1230184081281487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H8">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I8">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J8">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,22 +933,22 @@
         <v>2.430126</v>
       </c>
       <c r="O8">
-        <v>0.1880856911129011</v>
+        <v>0.1516674503452159</v>
       </c>
       <c r="P8">
-        <v>0.1880856911129011</v>
+        <v>0.1516674503452159</v>
       </c>
       <c r="Q8">
-        <v>102.31392899162</v>
+        <v>72.47084630275002</v>
       </c>
       <c r="R8">
-        <v>920.8253609245801</v>
+        <v>652.2376167247501</v>
       </c>
       <c r="S8">
-        <v>0.05720274590861153</v>
+        <v>0.03255852843216848</v>
       </c>
       <c r="T8">
-        <v>0.05720274590861154</v>
+        <v>0.03255852843216848</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H9">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I9">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J9">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.496729</v>
+        <v>4.530866666666666</v>
       </c>
       <c r="N9">
-        <v>10.490187</v>
+        <v>13.5926</v>
       </c>
       <c r="O9">
-        <v>0.811914308887099</v>
+        <v>0.8483325496547841</v>
       </c>
       <c r="P9">
-        <v>0.8119143088870989</v>
+        <v>0.8483325496547841</v>
       </c>
       <c r="Q9">
-        <v>441.6611516550233</v>
+        <v>405.3564405527778</v>
       </c>
       <c r="R9">
-        <v>3974.95036489521</v>
+        <v>3648.207964975</v>
       </c>
       <c r="S9">
-        <v>0.246928554936995</v>
+        <v>0.1821119783777027</v>
       </c>
       <c r="T9">
-        <v>0.246928554936995</v>
+        <v>0.1821119783777028</v>
       </c>
     </row>
   </sheetData>
